--- a/Employee_Reports28/Kevin Carl Enriquez Serrano Q0604.xlsx
+++ b/Employee_Reports28/Kevin Carl Enriquez Serrano Q0604.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -71,7 +68,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -565,11 +562,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -614,11 +611,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -663,11 +660,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -712,11 +709,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -761,11 +758,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -810,11 +807,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -859,11 +856,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -908,11 +905,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -957,11 +954,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1006,11 +1003,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1055,11 +1052,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1104,11 +1101,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1151,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1198,11 +1195,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1245,11 +1242,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1282,11 +1279,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1319,11 +1316,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1359,7 +1356,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1419,7 +1416,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
